--- a/data_analysis/data/export/user_action_statistics_20220907.xlsx
+++ b/data_analysis/data/export/user_action_statistics_20220907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangchao/Downloads/DarkPita/dark-pita/data_analysis/data/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F47D1EF-C90B-6C47-860D-A1A670A23003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F86F82C-B5B7-DE4B-9441-5F2EF1FF0D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="32340" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="33360" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>2022-08-26 12:06:37</t>
-  </si>
-  <si>
-    <t>SUM</t>
   </si>
 </sst>
 </file>
@@ -614,33 +611,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="37" width="0" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -760,15 +755,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>1603</v>
@@ -887,19 +882,16 @@
       <c r="AP2">
         <v>0</v>
       </c>
-      <c r="AR2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
       <c r="D3">
         <v>1115</v>
@@ -1018,19 +1010,16 @@
       <c r="AP3">
         <v>0</v>
       </c>
-      <c r="AR3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
       <c r="D4">
         <v>1921</v>
@@ -1149,19 +1138,16 @@
       <c r="AP4">
         <v>1</v>
       </c>
-      <c r="AR4">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5">
         <v>82</v>
@@ -1280,19 +1266,16 @@
       <c r="AP5">
         <v>0</v>
       </c>
-      <c r="AR5">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
       </c>
       <c r="D6">
         <v>593</v>
@@ -1411,19 +1394,16 @@
       <c r="AP6">
         <v>0</v>
       </c>
-      <c r="AR6">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
       </c>
       <c r="D7">
         <v>206</v>
@@ -1542,19 +1522,16 @@
       <c r="AP7">
         <v>0</v>
       </c>
-      <c r="AR7">
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
       </c>
       <c r="D8">
         <v>4287</v>
@@ -1673,19 +1650,16 @@
       <c r="AP8">
         <v>0</v>
       </c>
-      <c r="AR8">
-        <v>7</v>
-      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
       </c>
       <c r="D9">
         <v>7608</v>
@@ -1804,19 +1778,16 @@
       <c r="AP9">
         <v>0</v>
       </c>
-      <c r="AR9">
-        <v>7</v>
-      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
       </c>
       <c r="D10">
         <v>393</v>
@@ -1935,19 +1906,16 @@
       <c r="AP10">
         <v>1</v>
       </c>
-      <c r="AR10">
-        <v>7</v>
-      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
       </c>
       <c r="D11">
         <v>5164</v>
@@ -2066,19 +2034,16 @@
       <c r="AP11">
         <v>0</v>
       </c>
-      <c r="AR11">
-        <v>8</v>
-      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
       </c>
       <c r="D12">
         <v>544</v>
@@ -2197,19 +2162,16 @@
       <c r="AP12">
         <v>1</v>
       </c>
-      <c r="AR12">
-        <v>8</v>
-      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
       </c>
       <c r="D13">
         <v>4807</v>
@@ -2328,19 +2290,16 @@
       <c r="AP13">
         <v>0</v>
       </c>
-      <c r="AR13">
-        <v>9</v>
-      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
       </c>
       <c r="D14">
         <v>333</v>
@@ -2459,19 +2418,16 @@
       <c r="AP14">
         <v>1</v>
       </c>
-      <c r="AR14">
-        <v>9</v>
-      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
       </c>
       <c r="D15">
         <v>8901</v>
@@ -2590,19 +2546,16 @@
       <c r="AP15">
         <v>1</v>
       </c>
-      <c r="AR15">
-        <v>10</v>
-      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
       </c>
       <c r="D16">
         <v>1774</v>
@@ -2721,19 +2674,16 @@
       <c r="AP16">
         <v>0</v>
       </c>
-      <c r="AR16">
-        <v>10</v>
-      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -2852,19 +2802,16 @@
       <c r="AP17">
         <v>0</v>
       </c>
-      <c r="AR17">
-        <v>10</v>
-      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
       </c>
       <c r="D18">
         <v>69</v>
@@ -2983,29 +2930,19 @@
       <c r="AP18">
         <v>0</v>
       </c>
-      <c r="AR18">
-        <v>10</v>
-      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C2:C18)</f>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>SUM(B2:B18)</f>
         <v>107</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:F21" si="0">SUM(D2:D18)</f>
+      <c r="D20">
+        <f>SUM(D2:D18)</f>
         <v>41416</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+      <c r="E20">
+        <f>SUM(E2:E18)</f>
         <v>4211</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>249</v>
       </c>
     </row>
   </sheetData>
